--- a/data/9-29-19_data/Slot-2019-09-29-mod.xlsx
+++ b/data/9-29-19_data/Slot-2019-09-29-mod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joel\Documents\GitHub\DjangoLeagueScheduler\data\9-29-19_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087EE8B2-2576-4366-B00F-EF0355A3B20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5888E174-879B-4C31-A415-09EFE76FB4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="30" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,8 +786,8 @@
   <dimension ref="A1:H746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J173" sqref="J173"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,7 +1849,7 @@
     </row>
     <row r="51" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5">
-        <v>682</v>
+        <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>10</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="52" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <v>683</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>11</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="53" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="5">
-        <v>684</v>
+        <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>12</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <v>685</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>6</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="55" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5">
-        <v>686</v>
+        <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>9</v>
@@ -1955,7 +1955,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
-        <v>687</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>8</v>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="57" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5">
-        <v>688</v>
+        <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>7</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
-        <v>689</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>5</v>
@@ -2021,7 +2021,7 @@
     </row>
     <row r="59" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="5">
-        <v>690</v>
+        <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>6</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="60" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
-        <v>691</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>9</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="61" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5">
-        <v>692</v>
+        <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>12</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
-        <v>693</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>8</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="63" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5">
-        <v>694</v>
+        <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>7</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="64" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
-        <v>695</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="65" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5">
-        <v>696</v>
+        <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>10</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
-        <v>697</v>
+        <v>65</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>11</v>
@@ -2189,7 +2189,7 @@
     </row>
     <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="5">
-        <v>570</v>
+        <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>10</v>
@@ -2211,7 +2211,7 @@
     </row>
     <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
-        <v>571</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>11</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5">
-        <v>572</v>
+        <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>12</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>573</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>6</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5">
-        <v>574</v>
+        <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>9</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
-        <v>575</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>8</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5">
-        <v>576</v>
+        <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>7</v>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>577</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>5</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="75" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="5">
-        <v>578</v>
+        <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>6</v>
@@ -2381,7 +2381,7 @@
     </row>
     <row r="76" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>579</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>9</v>
@@ -2403,7 +2403,7 @@
     </row>
     <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>580</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>12</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
-        <v>581</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>8</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="79" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>582</v>
+        <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>7</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="80" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
-        <v>583</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>5</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="81" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>584</v>
+        <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>10</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
-        <v>585</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>11</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>698</v>
+        <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>10</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="84" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>699</v>
+        <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>11</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="85" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>700</v>
+        <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>12</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="86" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
-        <v>701</v>
+        <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>6</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="87" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>702</v>
+        <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>9</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="88" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
-        <v>703</v>
+        <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>8</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="89" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>704</v>
+        <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>7</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="90" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <v>705</v>
+        <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>5</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="91" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>706</v>
+        <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>6</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="92" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <v>707</v>
+        <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>9</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="93" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>708</v>
+        <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>12</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="94" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
-        <v>709</v>
+        <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>8</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="95" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>710</v>
+        <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>7</v>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="96" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
-        <v>711</v>
+        <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>5</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="97" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>712</v>
+        <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>10</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="98" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
-        <v>713</v>
+        <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>11</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>586</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>587</v>
+        <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>11</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="101" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>588</v>
+        <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>12</v>
@@ -2939,7 +2939,7 @@
     </row>
     <row r="102" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
-        <v>589</v>
+        <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>6</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="103" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>590</v>
+        <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>9</v>
@@ -2979,7 +2979,7 @@
     </row>
     <row r="104" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
-        <v>591</v>
+        <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>8</v>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="105" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>592</v>
+        <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>7</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="106" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
-        <v>593</v>
+        <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>5</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="107" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>594</v>
+        <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>6</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="108" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
-        <v>595</v>
+        <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>9</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="109" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>12</v>
@@ -3109,7 +3109,7 @@
     </row>
     <row r="110" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>8</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="111" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>598</v>
+        <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>7</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="112" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>599</v>
+        <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>5</v>
@@ -3171,7 +3171,7 @@
     </row>
     <row r="113" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="5">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>10</v>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="114" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
-        <v>601</v>
+        <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>11</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="115" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="5">
-        <v>458</v>
+        <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>10</v>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
-        <v>459</v>
+        <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>11</v>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="117" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="5">
-        <v>460</v>
+        <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>12</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
-        <v>461</v>
+        <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>6</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="119" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="5">
-        <v>462</v>
+        <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>9</v>
@@ -3321,7 +3321,7 @@
     </row>
     <row r="120" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
-        <v>463</v>
+        <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>8</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="121" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="5">
-        <v>464</v>
+        <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>7</v>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
-        <v>465</v>
+        <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>5</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="5">
-        <v>466</v>
+        <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>6</v>
@@ -3405,7 +3405,7 @@
     </row>
     <row r="124" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
-        <v>467</v>
+        <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>9</v>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5">
-        <v>468</v>
+        <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>7</v>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="126" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
-        <v>469</v>
+        <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>5</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="127" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5">
-        <v>470</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>12</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="128" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
-        <v>471</v>
+        <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>8</v>
@@ -3515,7 +3515,7 @@
     </row>
     <row r="129" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5">
-        <v>472</v>
+        <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>10</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="130" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
-        <v>473</v>
+        <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
         <v>11</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>10</v>
@@ -3581,7 +3581,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>11</v>
@@ -3603,7 +3603,7 @@
     </row>
     <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5">
-        <v>52</v>
+        <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>12</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>6</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="135" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>9</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="136" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
         <v>8</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="137" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>7</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>5</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="139" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>12</v>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>6</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>9</v>
@@ -3789,7 +3789,7 @@
     </row>
     <row r="142" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>7</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="143" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>5</v>
@@ -3830,7 +3830,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>8</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="145" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>6</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>10</v>
@@ -3894,7 +3894,7 @@
     </row>
     <row r="147" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5">
-        <v>66</v>
+        <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>11</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>67</v>
+        <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>9</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="149" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>12</v>
@@ -3960,7 +3960,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>69</v>
+        <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>7</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="151" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>5</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>6</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="153" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5">
-        <v>72</v>
+        <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>8</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>10</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="155" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5">
-        <v>74</v>
+        <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>11</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="156" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>9</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="157" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>12</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>7</v>
@@ -4153,7 +4153,7 @@
     </row>
     <row r="159" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5">
-        <v>78</v>
+        <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>5</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>6</v>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="161" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>8</v>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>9</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="163" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>10</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>11</v>
@@ -4283,7 +4283,7 @@
     </row>
     <row r="165" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>12</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>6</v>
@@ -4325,7 +4325,7 @@
     </row>
     <row r="167" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>7</v>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>5</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="169" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>8</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>9</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="171" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>12</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>6</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="173" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>10</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
-        <v>93</v>
+        <v>173</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>11</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="175" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>7</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>8</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="177" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>5</v>
@@ -4563,7 +4563,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>9</v>
@@ -4581,7 +4581,7 @@
     </row>
     <row r="179" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>12</v>
@@ -4601,7 +4601,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>10</v>
@@ -4623,7 +4623,7 @@
     </row>
     <row r="181" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>11</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>714</v>
+        <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>10</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="183" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5">
-        <v>715</v>
+        <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>11</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>716</v>
+        <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>12</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="185" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5">
-        <v>717</v>
+        <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>6</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>718</v>
+        <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>9</v>
@@ -4751,7 +4751,7 @@
     </row>
     <row r="187" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5">
-        <v>719</v>
+        <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>8</v>
@@ -4773,7 +4773,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>720</v>
+        <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>7</v>
@@ -4795,7 +4795,7 @@
     </row>
     <row r="189" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5">
-        <v>721</v>
+        <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>5</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>722</v>
+        <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>6</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="191" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5">
-        <v>723</v>
+        <v>190</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>9</v>
@@ -4858,7 +4858,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>724</v>
+        <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>12</v>
@@ -4880,7 +4880,7 @@
     </row>
     <row r="193" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5">
-        <v>725</v>
+        <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>8</v>
@@ -4902,7 +4902,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>726</v>
+        <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>7</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="195" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5">
-        <v>727</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>5</v>
@@ -4940,7 +4940,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>728</v>
+        <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>10</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="197" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5">
-        <v>729</v>
+        <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>11</v>
@@ -4984,7 +4984,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>474</v>
+        <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>10</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5">
-        <v>475</v>
+        <v>198</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>11</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>476</v>
+        <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>12</v>
@@ -5050,7 +5050,7 @@
     </row>
     <row r="201" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5">
-        <v>477</v>
+        <v>200</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>6</v>
@@ -5070,7 +5070,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
-        <v>478</v>
+        <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>9</v>
@@ -5090,7 +5090,7 @@
     </row>
     <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5">
-        <v>479</v>
+        <v>202</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>8</v>
@@ -5112,7 +5112,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
-        <v>480</v>
+        <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>7</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="205" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5">
-        <v>481</v>
+        <v>204</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>5</v>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
-        <v>482</v>
+        <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>6</v>
@@ -5174,7 +5174,7 @@
     </row>
     <row r="207" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5">
-        <v>483</v>
+        <v>206</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>9</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
-        <v>484</v>
+        <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>7</v>
@@ -5218,7 +5218,7 @@
     </row>
     <row r="209" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5">
-        <v>485</v>
+        <v>208</v>
       </c>
       <c r="B209" s="8" t="s">
         <v>5</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
-        <v>486</v>
+        <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>12</v>
@@ -5262,7 +5262,7 @@
     </row>
     <row r="211" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5">
-        <v>487</v>
+        <v>210</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>8</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
-        <v>488</v>
+        <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>10</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="213" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5">
-        <v>489</v>
+        <v>212</v>
       </c>
       <c r="B213" s="8" t="s">
         <v>11</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>10</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="215" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="B215" s="6" t="s">
         <v>11</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>12</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="217" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>6</v>
@@ -5412,7 +5412,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
-        <v>105</v>
+        <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>9</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="219" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5">
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="B219" s="8" t="s">
         <v>8</v>
@@ -5454,7 +5454,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
-        <v>107</v>
+        <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>7</v>
@@ -5474,7 +5474,7 @@
     </row>
     <row r="221" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5">
-        <v>108</v>
+        <v>220</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>5</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>12</v>
@@ -5515,7 +5515,7 @@
     </row>
     <row r="223" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>6</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
-        <v>111</v>
+        <v>223</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>9</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="225" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>7</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
-        <v>113</v>
+        <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>5</v>
@@ -5598,7 +5598,7 @@
     </row>
     <row r="227" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>8</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>6</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="229" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5">
-        <v>116</v>
+        <v>228</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>10</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
-        <v>117</v>
+        <v>229</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>11</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5">
-        <v>118</v>
+        <v>230</v>
       </c>
       <c r="B231" s="6" t="s">
         <v>9</v>
@@ -5703,7 +5703,7 @@
     </row>
     <row r="232" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
-        <v>119</v>
+        <v>231</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>12</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="233" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>7</v>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>5</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="235" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>6</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
-        <v>123</v>
+        <v>235</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>8</v>
@@ -5811,7 +5811,7 @@
     </row>
     <row r="237" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>10</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>11</v>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="239" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5">
-        <v>126</v>
+        <v>238</v>
       </c>
       <c r="B239" s="8" t="s">
         <v>9</v>
@@ -5876,7 +5876,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>12</v>
@@ -5898,7 +5898,7 @@
     </row>
     <row r="241" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>7</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>5</v>
@@ -5941,7 +5941,7 @@
     </row>
     <row r="243" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5">
-        <v>130</v>
+        <v>242</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>6</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>8</v>
@@ -5982,7 +5982,7 @@
     </row>
     <row r="245" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5">
-        <v>132</v>
+        <v>244</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>9</v>
@@ -6004,7 +6004,7 @@
     </row>
     <row r="246" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
-        <v>133</v>
+        <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>10</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="247" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>11</v>
@@ -6048,7 +6048,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>12</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="249" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>6</v>
@@ -6090,7 +6090,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>7</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="251" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>5</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="252" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>8</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="253" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>9</v>
@@ -6176,7 +6176,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
-        <v>141</v>
+        <v>253</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>12</v>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="255" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>6</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>10</v>
@@ -6238,7 +6238,7 @@
     </row>
     <row r="257" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5">
-        <v>144</v>
+        <v>256</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>11</v>
@@ -6260,7 +6260,7 @@
     </row>
     <row r="258" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
-        <v>145</v>
+        <v>257</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>7</v>
@@ -6282,7 +6282,7 @@
     </row>
     <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>8</v>
@@ -6304,7 +6304,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>5</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="261" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>9</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>12</v>
@@ -6364,7 +6364,7 @@
     </row>
     <row r="263" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>10</v>
@@ -6386,7 +6386,7 @@
     </row>
     <row r="264" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>11</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="265" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5">
-        <v>730</v>
+        <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>10</v>
@@ -6430,7 +6430,7 @@
     </row>
     <row r="266" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
-        <v>731</v>
+        <v>265</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>11</v>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="267" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5">
-        <v>732</v>
+        <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>12</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="268" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
-        <v>733</v>
+        <v>267</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>6</v>
@@ -6494,7 +6494,7 @@
     </row>
     <row r="269" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5">
-        <v>734</v>
+        <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>9</v>
@@ -6514,7 +6514,7 @@
     </row>
     <row r="270" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
-        <v>735</v>
+        <v>269</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>8</v>
@@ -6536,7 +6536,7 @@
     </row>
     <row r="271" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5">
-        <v>736</v>
+        <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>7</v>
@@ -6558,7 +6558,7 @@
     </row>
     <row r="272" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
-        <v>737</v>
+        <v>271</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>5</v>
@@ -6580,7 +6580,7 @@
     </row>
     <row r="273" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5">
-        <v>738</v>
+        <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>6</v>
@@ -6600,7 +6600,7 @@
     </row>
     <row r="274" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
-        <v>739</v>
+        <v>273</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>9</v>
@@ -6621,7 +6621,7 @@
     </row>
     <row r="275" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5">
-        <v>740</v>
+        <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>12</v>
@@ -6643,7 +6643,7 @@
     </row>
     <row r="276" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
-        <v>741</v>
+        <v>275</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>8</v>
@@ -6665,7 +6665,7 @@
     </row>
     <row r="277" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5">
-        <v>742</v>
+        <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>7</v>
@@ -6685,7 +6685,7 @@
     </row>
     <row r="278" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
-        <v>743</v>
+        <v>277</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>5</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="279" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5">
-        <v>744</v>
+        <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>10</v>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="280" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
-        <v>745</v>
+        <v>279</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>11</v>
@@ -6749,7 +6749,7 @@
     </row>
     <row r="281" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5">
-        <v>490</v>
+        <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>10</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="282" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
-        <v>491</v>
+        <v>281</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>11</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="283" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5">
-        <v>492</v>
+        <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>12</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="284" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
-        <v>493</v>
+        <v>283</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>6</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="285" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5">
-        <v>494</v>
+        <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>9</v>
@@ -6855,7 +6855,7 @@
     </row>
     <row r="286" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
-        <v>495</v>
+        <v>285</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>8</v>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="287" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5">
-        <v>496</v>
+        <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>7</v>
@@ -6899,7 +6899,7 @@
     </row>
     <row r="288" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
-        <v>497</v>
+        <v>287</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>5</v>
@@ -6919,7 +6919,7 @@
     </row>
     <row r="289" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5">
-        <v>498</v>
+        <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>6</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="290" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
-        <v>499</v>
+        <v>289</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>9</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="291" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5">
-        <v>500</v>
+        <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>7</v>
@@ -6982,7 +6982,7 @@
     </row>
     <row r="292" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
-        <v>501</v>
+        <v>291</v>
       </c>
       <c r="B292" s="8" t="s">
         <v>5</v>
@@ -7004,7 +7004,7 @@
     </row>
     <row r="293" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5">
-        <v>502</v>
+        <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>12</v>
@@ -7026,7 +7026,7 @@
     </row>
     <row r="294" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
-        <v>503</v>
+        <v>293</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>8</v>
@@ -7048,7 +7048,7 @@
     </row>
     <row r="295" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5">
-        <v>504</v>
+        <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>10</v>
@@ -7070,7 +7070,7 @@
     </row>
     <row r="296" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
-        <v>505</v>
+        <v>295</v>
       </c>
       <c r="B296" s="8" t="s">
         <v>11</v>
@@ -7092,7 +7092,7 @@
     </row>
     <row r="297" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>10</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
-        <v>153</v>
+        <v>297</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>11</v>
@@ -7136,7 +7136,7 @@
     </row>
     <row r="299" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5">
-        <v>154</v>
+        <v>298</v>
       </c>
       <c r="B299" s="6" t="s">
         <v>12</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
-        <v>155</v>
+        <v>299</v>
       </c>
       <c r="B300" s="6" t="s">
         <v>6</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="301" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5">
-        <v>156</v>
+        <v>300</v>
       </c>
       <c r="B301" s="6" t="s">
         <v>9</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="302" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="B302" s="8" t="s">
         <v>8</v>
@@ -7218,7 +7218,7 @@
     </row>
     <row r="303" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5">
-        <v>158</v>
+        <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>7</v>
@@ -7238,7 +7238,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
-        <v>159</v>
+        <v>303</v>
       </c>
       <c r="B304" s="6" t="s">
         <v>5</v>
@@ -7258,7 +7258,7 @@
     </row>
     <row r="305" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5">
-        <v>160</v>
+        <v>304</v>
       </c>
       <c r="B305" s="6" t="s">
         <v>12</v>
@@ -7280,7 +7280,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="B306" s="6" t="s">
         <v>6</v>
@@ -7300,7 +7300,7 @@
     </row>
     <row r="307" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5">
-        <v>162</v>
+        <v>306</v>
       </c>
       <c r="B307" s="6" t="s">
         <v>9</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="308" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
-        <v>163</v>
+        <v>307</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>7</v>
@@ -7343,7 +7343,7 @@
     </row>
     <row r="309" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5">
-        <v>164</v>
+        <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>5</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
-        <v>165</v>
+        <v>309</v>
       </c>
       <c r="B310" s="6" t="s">
         <v>8</v>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="311" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5">
-        <v>166</v>
+        <v>310</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>6</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
-        <v>167</v>
+        <v>311</v>
       </c>
       <c r="B312" s="6" t="s">
         <v>10</v>
@@ -7425,7 +7425,7 @@
     </row>
     <row r="313" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5">
-        <v>168</v>
+        <v>312</v>
       </c>
       <c r="B313" s="6" t="s">
         <v>11</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
-        <v>169</v>
+        <v>313</v>
       </c>
       <c r="B314" s="6" t="s">
         <v>9</v>
@@ -7469,7 +7469,7 @@
     </row>
     <row r="315" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="B315" s="6" t="s">
         <v>12</v>
@@ -7491,7 +7491,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
-        <v>171</v>
+        <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>7</v>
@@ -7513,7 +7513,7 @@
     </row>
     <row r="317" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5">
-        <v>172</v>
+        <v>316</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>5</v>
@@ -7534,7 +7534,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
-        <v>173</v>
+        <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>6</v>
@@ -7552,7 +7552,7 @@
     </row>
     <row r="319" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="B319" s="6" t="s">
         <v>8</v>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>10</v>
@@ -7595,7 +7595,7 @@
     </row>
     <row r="321" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5">
-        <v>176</v>
+        <v>320</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>11</v>
@@ -7616,7 +7616,7 @@
     </row>
     <row r="322" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
-        <v>177</v>
+        <v>321</v>
       </c>
       <c r="B322" s="8" t="s">
         <v>9</v>
@@ -7638,7 +7638,7 @@
     </row>
     <row r="323" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5">
-        <v>178</v>
+        <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>12</v>
@@ -7660,7 +7660,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>7</v>
@@ -7681,7 +7681,7 @@
     </row>
     <row r="325" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5">
-        <v>180</v>
+        <v>324</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>5</v>
@@ -7702,7 +7702,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
-        <v>181</v>
+        <v>325</v>
       </c>
       <c r="B326" s="6" t="s">
         <v>6</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="327" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>8</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
-        <v>183</v>
+        <v>327</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>9</v>
@@ -7764,7 +7764,7 @@
     </row>
     <row r="329" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5">
-        <v>184</v>
+        <v>328</v>
       </c>
       <c r="B329" s="6" t="s">
         <v>10</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
-        <v>185</v>
+        <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>11</v>
@@ -7808,7 +7808,7 @@
     </row>
     <row r="331" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5">
-        <v>186</v>
+        <v>330</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>12</v>
@@ -7829,7 +7829,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="B332" s="6" t="s">
         <v>6</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="333" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5">
-        <v>188</v>
+        <v>332</v>
       </c>
       <c r="B333" s="6" t="s">
         <v>7</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
-        <v>189</v>
+        <v>333</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>5</v>
@@ -7892,7 +7892,7 @@
     </row>
     <row r="335" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5">
-        <v>190</v>
+        <v>334</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>8</v>
@@ -7913,7 +7913,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
-        <v>191</v>
+        <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>9</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="337" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="B337" s="6" t="s">
         <v>12</v>
@@ -7957,7 +7957,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
-        <v>193</v>
+        <v>337</v>
       </c>
       <c r="B338" s="6" t="s">
         <v>6</v>
@@ -7977,7 +7977,7 @@
     </row>
     <row r="339" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5">
-        <v>194</v>
+        <v>338</v>
       </c>
       <c r="B339" s="6" t="s">
         <v>10</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
-        <v>195</v>
+        <v>339</v>
       </c>
       <c r="B340" s="6" t="s">
         <v>11</v>
@@ -8021,7 +8021,7 @@
     </row>
     <row r="341" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5">
-        <v>196</v>
+        <v>340</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>7</v>
@@ -8042,7 +8042,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
-        <v>197</v>
+        <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>8</v>
@@ -8064,7 +8064,7 @@
     </row>
     <row r="343" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>5</v>
@@ -8085,7 +8085,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
-        <v>199</v>
+        <v>343</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>9</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="345" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5">
-        <v>200</v>
+        <v>344</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>12</v>
@@ -8121,7 +8121,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="B346" s="6" t="s">
         <v>10</v>
@@ -8143,7 +8143,7 @@
     </row>
     <row r="347" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5">
-        <v>202</v>
+        <v>346</v>
       </c>
       <c r="B347" s="6" t="s">
         <v>11</v>
@@ -8165,7 +8165,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
-        <v>602</v>
+        <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
         <v>10</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="349" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5">
-        <v>603</v>
+        <v>348</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>11</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
-        <v>604</v>
+        <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
         <v>12</v>
@@ -8231,7 +8231,7 @@
     </row>
     <row r="351" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5">
-        <v>605</v>
+        <v>350</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>6</v>
@@ -8251,7 +8251,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
-        <v>606</v>
+        <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
         <v>9</v>
@@ -8271,7 +8271,7 @@
     </row>
     <row r="353" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5">
-        <v>607</v>
+        <v>352</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>8</v>
@@ -8293,7 +8293,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
-        <v>608</v>
+        <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
         <v>7</v>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="355" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5">
-        <v>609</v>
+        <v>354</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>5</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
-        <v>610</v>
+        <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
         <v>6</v>
@@ -8357,7 +8357,7 @@
     </row>
     <row r="357" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5">
-        <v>611</v>
+        <v>356</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>9</v>
@@ -8378,7 +8378,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
-        <v>612</v>
+        <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
         <v>12</v>
@@ -8400,7 +8400,7 @@
     </row>
     <row r="359" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5">
-        <v>613</v>
+        <v>358</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>8</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
-        <v>614</v>
+        <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
         <v>7</v>
@@ -8441,7 +8441,7 @@
     </row>
     <row r="361" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5">
-        <v>615</v>
+        <v>360</v>
       </c>
       <c r="B361" s="6" t="s">
         <v>5</v>
@@ -8461,7 +8461,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
-        <v>616</v>
+        <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
         <v>10</v>
@@ -8483,7 +8483,7 @@
     </row>
     <row r="363" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5">
-        <v>617</v>
+        <v>362</v>
       </c>
       <c r="B363" s="6" t="s">
         <v>11</v>
@@ -8505,7 +8505,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
-        <v>506</v>
+        <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
         <v>10</v>
@@ -8527,7 +8527,7 @@
     </row>
     <row r="365" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5">
-        <v>507</v>
+        <v>364</v>
       </c>
       <c r="B365" s="6" t="s">
         <v>11</v>
@@ -8549,7 +8549,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
-        <v>508</v>
+        <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
         <v>12</v>
@@ -8571,7 +8571,7 @@
     </row>
     <row r="367" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5">
-        <v>509</v>
+        <v>366</v>
       </c>
       <c r="B367" s="6" t="s">
         <v>6</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
-        <v>510</v>
+        <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
         <v>9</v>
@@ -8611,7 +8611,7 @@
     </row>
     <row r="369" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5">
-        <v>511</v>
+        <v>368</v>
       </c>
       <c r="B369" s="6" t="s">
         <v>8</v>
@@ -8633,7 +8633,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
-        <v>512</v>
+        <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
         <v>7</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="371" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5">
-        <v>513</v>
+        <v>370</v>
       </c>
       <c r="B371" s="6" t="s">
         <v>5</v>
@@ -8675,7 +8675,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
-        <v>514</v>
+        <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
         <v>6</v>
@@ -8695,7 +8695,7 @@
     </row>
     <row r="373" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5">
-        <v>515</v>
+        <v>372</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>9</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
-        <v>516</v>
+        <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
         <v>7</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="375" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5">
-        <v>517</v>
+        <v>374</v>
       </c>
       <c r="B375" s="8" t="s">
         <v>5</v>
@@ -8760,7 +8760,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
-        <v>518</v>
+        <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
         <v>12</v>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="377" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5">
-        <v>519</v>
+        <v>376</v>
       </c>
       <c r="B377" s="6" t="s">
         <v>8</v>
@@ -8804,7 +8804,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
-        <v>520</v>
+        <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
         <v>10</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="379" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5">
-        <v>521</v>
+        <v>378</v>
       </c>
       <c r="B379" s="8" t="s">
         <v>11</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
-        <v>203</v>
+        <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
         <v>10</v>
@@ -8870,7 +8870,7 @@
     </row>
     <row r="381" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5">
-        <v>204</v>
+        <v>380</v>
       </c>
       <c r="B381" s="6" t="s">
         <v>11</v>
@@ -8892,7 +8892,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
-        <v>205</v>
+        <v>381</v>
       </c>
       <c r="B382" s="6" t="s">
         <v>12</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="383" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5">
-        <v>206</v>
+        <v>382</v>
       </c>
       <c r="B383" s="6" t="s">
         <v>6</v>
@@ -8932,7 +8932,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
-        <v>207</v>
+        <v>383</v>
       </c>
       <c r="B384" s="6" t="s">
         <v>9</v>
@@ -8952,7 +8952,7 @@
     </row>
     <row r="385" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5">
-        <v>208</v>
+        <v>384</v>
       </c>
       <c r="B385" s="8" t="s">
         <v>8</v>
@@ -8974,7 +8974,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
-        <v>209</v>
+        <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
         <v>7</v>
@@ -8994,7 +8994,7 @@
     </row>
     <row r="387" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="B387" s="6" t="s">
         <v>5</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
-        <v>211</v>
+        <v>387</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>12</v>
@@ -9035,7 +9035,7 @@
     </row>
     <row r="389" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5">
-        <v>212</v>
+        <v>388</v>
       </c>
       <c r="B389" s="6" t="s">
         <v>6</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
-        <v>213</v>
+        <v>389</v>
       </c>
       <c r="B390" s="6" t="s">
         <v>9</v>
@@ -9077,7 +9077,7 @@
     </row>
     <row r="391" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5">
-        <v>214</v>
+        <v>390</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>7</v>
@@ -9098,7 +9098,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
-        <v>215</v>
+        <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
         <v>5</v>
@@ -9118,7 +9118,7 @@
     </row>
     <row r="393" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5">
-        <v>216</v>
+        <v>392</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>8</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
-        <v>217</v>
+        <v>393</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>6</v>
@@ -9160,7 +9160,7 @@
     </row>
     <row r="395" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>10</v>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>11</v>
@@ -9204,7 +9204,7 @@
     </row>
     <row r="397" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="B397" s="6" t="s">
         <v>9</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="398" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
-        <v>221</v>
+        <v>397</v>
       </c>
       <c r="B398" s="6" t="s">
         <v>12</v>
@@ -9248,7 +9248,7 @@
     </row>
     <row r="399" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
         <v>7</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="B400" s="6" t="s">
         <v>5</v>
@@ -9292,7 +9292,7 @@
     </row>
     <row r="401" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5">
-        <v>224</v>
+        <v>400</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>6</v>
@@ -9310,7 +9310,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
-        <v>225</v>
+        <v>401</v>
       </c>
       <c r="B402" s="6" t="s">
         <v>8</v>
@@ -9332,7 +9332,7 @@
     </row>
     <row r="403" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>10</v>
@@ -9353,7 +9353,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="B404" s="6" t="s">
         <v>11</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="405" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="B405" s="8" t="s">
         <v>9</v>
@@ -9397,7 +9397,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
         <v>12</v>
@@ -9419,7 +9419,7 @@
     </row>
     <row r="407" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>7</v>
@@ -9440,7 +9440,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
-        <v>231</v>
+        <v>407</v>
       </c>
       <c r="B408" s="6" t="s">
         <v>5</v>
@@ -9462,7 +9462,7 @@
     </row>
     <row r="409" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="B409" s="6" t="s">
         <v>6</v>
@@ -9482,7 +9482,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="B410" s="6" t="s">
         <v>8</v>
@@ -9504,7 +9504,7 @@
     </row>
     <row r="411" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5">
-        <v>234</v>
+        <v>410</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>9</v>
@@ -9525,7 +9525,7 @@
     </row>
     <row r="412" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
-        <v>235</v>
+        <v>411</v>
       </c>
       <c r="B412" s="6" t="s">
         <v>10</v>
@@ -9547,7 +9547,7 @@
     </row>
     <row r="413" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5">
-        <v>236</v>
+        <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
         <v>11</v>
@@ -9569,7 +9569,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
-        <v>237</v>
+        <v>413</v>
       </c>
       <c r="B414" s="6" t="s">
         <v>12</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="415" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="B415" s="1" t="s">
         <v>6</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
-        <v>239</v>
+        <v>415</v>
       </c>
       <c r="B416" s="6" t="s">
         <v>7</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="417" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5">
-        <v>240</v>
+        <v>416</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>5</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="418" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
-        <v>241</v>
+        <v>417</v>
       </c>
       <c r="B418" s="6" t="s">
         <v>8</v>
@@ -9674,7 +9674,7 @@
     </row>
     <row r="419" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5">
-        <v>242</v>
+        <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
         <v>9</v>
@@ -9696,7 +9696,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="B420" s="6" t="s">
         <v>12</v>
@@ -9718,7 +9718,7 @@
     </row>
     <row r="421" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5">
-        <v>244</v>
+        <v>420</v>
       </c>
       <c r="B421" s="6" t="s">
         <v>6</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
-        <v>245</v>
+        <v>421</v>
       </c>
       <c r="B422" s="6" t="s">
         <v>10</v>
@@ -9760,7 +9760,7 @@
     </row>
     <row r="423" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5">
-        <v>246</v>
+        <v>422</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>11</v>
@@ -9781,7 +9781,7 @@
     </row>
     <row r="424" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
-        <v>247</v>
+        <v>423</v>
       </c>
       <c r="B424" s="6" t="s">
         <v>7</v>
@@ -9803,7 +9803,7 @@
     </row>
     <row r="425" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5">
-        <v>248</v>
+        <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
         <v>8</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
-        <v>249</v>
+        <v>425</v>
       </c>
       <c r="B426" s="6" t="s">
         <v>5</v>
@@ -9847,7 +9847,7 @@
     </row>
     <row r="427" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5">
-        <v>250</v>
+        <v>426</v>
       </c>
       <c r="B427" s="6" t="s">
         <v>9</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
-        <v>251</v>
+        <v>427</v>
       </c>
       <c r="B428" s="6" t="s">
         <v>12</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="429" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5">
-        <v>252</v>
+        <v>428</v>
       </c>
       <c r="B429" s="6" t="s">
         <v>10</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="430" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
-        <v>253</v>
+        <v>429</v>
       </c>
       <c r="B430" s="6" t="s">
         <v>11</v>
@@ -9931,7 +9931,7 @@
     </row>
     <row r="431" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5">
-        <v>618</v>
+        <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
         <v>10</v>
@@ -9953,7 +9953,7 @@
     </row>
     <row r="432" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="B432" s="6" t="s">
         <v>11</v>
@@ -9975,7 +9975,7 @@
     </row>
     <row r="433" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5">
-        <v>620</v>
+        <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
         <v>12</v>
@@ -9997,7 +9997,7 @@
     </row>
     <row r="434" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
-        <v>621</v>
+        <v>433</v>
       </c>
       <c r="B434" s="6" t="s">
         <v>6</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="435" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5">
-        <v>622</v>
+        <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
         <v>9</v>
@@ -10037,7 +10037,7 @@
     </row>
     <row r="436" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
-        <v>623</v>
+        <v>435</v>
       </c>
       <c r="B436" s="6" t="s">
         <v>8</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="437" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5">
-        <v>624</v>
+        <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
         <v>7</v>
@@ -10081,7 +10081,7 @@
     </row>
     <row r="438" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
-        <v>625</v>
+        <v>437</v>
       </c>
       <c r="B438" s="6" t="s">
         <v>5</v>
@@ -10103,7 +10103,7 @@
     </row>
     <row r="439" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5">
-        <v>626</v>
+        <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
         <v>6</v>
@@ -10123,7 +10123,7 @@
     </row>
     <row r="440" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
-        <v>627</v>
+        <v>439</v>
       </c>
       <c r="B440" s="6" t="s">
         <v>9</v>
@@ -10145,7 +10145,7 @@
     </row>
     <row r="441" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5">
-        <v>628</v>
+        <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
         <v>12</v>
@@ -10167,7 +10167,7 @@
     </row>
     <row r="442" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
-        <v>629</v>
+        <v>441</v>
       </c>
       <c r="B442" s="6" t="s">
         <v>8</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="443" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5">
-        <v>630</v>
+        <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
         <v>7</v>
@@ -10209,7 +10209,7 @@
     </row>
     <row r="444" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
-        <v>631</v>
+        <v>443</v>
       </c>
       <c r="B444" s="6" t="s">
         <v>5</v>
@@ -10229,7 +10229,7 @@
     </row>
     <row r="445" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5">
-        <v>632</v>
+        <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
         <v>10</v>
@@ -10251,7 +10251,7 @@
     </row>
     <row r="446" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
-        <v>633</v>
+        <v>445</v>
       </c>
       <c r="B446" s="6" t="s">
         <v>11</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="447" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
         <v>10</v>
@@ -10295,7 +10295,7 @@
     </row>
     <row r="448" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
-        <v>523</v>
+        <v>447</v>
       </c>
       <c r="B448" s="6" t="s">
         <v>11</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="449" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="5">
-        <v>524</v>
+        <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
         <v>12</v>
@@ -10339,7 +10339,7 @@
     </row>
     <row r="450" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
-        <v>525</v>
+        <v>449</v>
       </c>
       <c r="B450" s="6" t="s">
         <v>6</v>
@@ -10359,7 +10359,7 @@
     </row>
     <row r="451" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="5">
-        <v>526</v>
+        <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
         <v>9</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="452" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
-        <v>527</v>
+        <v>451</v>
       </c>
       <c r="B452" s="6" t="s">
         <v>8</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="453" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="5">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
         <v>7</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="454" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="B454" s="6" t="s">
         <v>5</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="455" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="5">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
         <v>6</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="456" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="B456" s="6" t="s">
         <v>9</v>
@@ -10485,7 +10485,7 @@
     </row>
     <row r="457" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="5">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
         <v>7</v>
@@ -10507,7 +10507,7 @@
     </row>
     <row r="458" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="B458" s="8" t="s">
         <v>5</v>
@@ -10529,7 +10529,7 @@
     </row>
     <row r="459" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="5">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
         <v>12</v>
@@ -10551,7 +10551,7 @@
     </row>
     <row r="460" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>8</v>
@@ -10573,7 +10573,7 @@
     </row>
     <row r="461" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="5">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
         <v>10</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="462" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="B462" s="8" t="s">
         <v>11</v>
@@ -10617,7 +10617,7 @@
     </row>
     <row r="463" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="5">
-        <v>254</v>
+        <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
         <v>10</v>
@@ -10639,7 +10639,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
-        <v>255</v>
+        <v>463</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>11</v>
@@ -10661,7 +10661,7 @@
     </row>
     <row r="465" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="5">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="B465" s="6" t="s">
         <v>12</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
-        <v>257</v>
+        <v>465</v>
       </c>
       <c r="B466" s="6" t="s">
         <v>6</v>
@@ -10701,7 +10701,7 @@
     </row>
     <row r="467" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="5">
-        <v>258</v>
+        <v>466</v>
       </c>
       <c r="B467" s="6" t="s">
         <v>9</v>
@@ -10721,7 +10721,7 @@
     </row>
     <row r="468" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
-        <v>259</v>
+        <v>467</v>
       </c>
       <c r="B468" s="8" t="s">
         <v>8</v>
@@ -10743,7 +10743,7 @@
     </row>
     <row r="469" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="5">
-        <v>260</v>
+        <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
         <v>7</v>
@@ -10763,7 +10763,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
-        <v>261</v>
+        <v>469</v>
       </c>
       <c r="B470" s="6" t="s">
         <v>5</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="471" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="5">
-        <v>262</v>
+        <v>470</v>
       </c>
       <c r="B471" s="1" t="s">
         <v>12</v>
@@ -10804,7 +10804,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="B472" s="6" t="s">
         <v>6</v>
@@ -10824,7 +10824,7 @@
     </row>
     <row r="473" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="5">
-        <v>264</v>
+        <v>472</v>
       </c>
       <c r="B473" s="1" t="s">
         <v>9</v>
@@ -10845,7 +10845,7 @@
     </row>
     <row r="474" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
-        <v>265</v>
+        <v>473</v>
       </c>
       <c r="B474" s="1" t="s">
         <v>7</v>
@@ -10866,7 +10866,7 @@
     </row>
     <row r="475" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="5">
-        <v>266</v>
+        <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
         <v>5</v>
@@ -10886,7 +10886,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="B476" s="6" t="s">
         <v>8</v>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="477" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="5">
-        <v>268</v>
+        <v>476</v>
       </c>
       <c r="B477" s="1" t="s">
         <v>6</v>
@@ -10926,7 +10926,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
-        <v>269</v>
+        <v>477</v>
       </c>
       <c r="B478" s="6" t="s">
         <v>10</v>
@@ -10948,7 +10948,7 @@
     </row>
     <row r="479" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="5">
-        <v>270</v>
+        <v>478</v>
       </c>
       <c r="B479" s="1" t="s">
         <v>11</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="B480" s="6" t="s">
         <v>9</v>
@@ -10991,7 +10991,7 @@
     </row>
     <row r="481" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="5">
-        <v>272</v>
+        <v>480</v>
       </c>
       <c r="B481" s="6" t="s">
         <v>12</v>
@@ -11013,7 +11013,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
-        <v>273</v>
+        <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
         <v>7</v>
@@ -11035,7 +11035,7 @@
     </row>
     <row r="483" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="5">
-        <v>274</v>
+        <v>482</v>
       </c>
       <c r="B483" s="1" t="s">
         <v>5</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
-        <v>275</v>
+        <v>483</v>
       </c>
       <c r="B484" s="1" t="s">
         <v>6</v>
@@ -11074,7 +11074,7 @@
     </row>
     <row r="485" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="5">
-        <v>276</v>
+        <v>484</v>
       </c>
       <c r="B485" s="1" t="s">
         <v>8</v>
@@ -11095,7 +11095,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
-        <v>277</v>
+        <v>485</v>
       </c>
       <c r="B486" s="1" t="s">
         <v>10</v>
@@ -11116,7 +11116,7 @@
     </row>
     <row r="487" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="5">
-        <v>278</v>
+        <v>486</v>
       </c>
       <c r="B487" s="1" t="s">
         <v>11</v>
@@ -11137,7 +11137,7 @@
     </row>
     <row r="488" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2">
-        <v>279</v>
+        <v>487</v>
       </c>
       <c r="B488" s="8" t="s">
         <v>9</v>
@@ -11159,7 +11159,7 @@
     </row>
     <row r="489" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="5">
-        <v>280</v>
+        <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
         <v>12</v>
@@ -11181,7 +11181,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
-        <v>281</v>
+        <v>489</v>
       </c>
       <c r="B490" s="6" t="s">
         <v>7</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="491" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="5">
-        <v>282</v>
+        <v>490</v>
       </c>
       <c r="B491" s="1" t="s">
         <v>5</v>
@@ -11224,7 +11224,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
-        <v>283</v>
+        <v>491</v>
       </c>
       <c r="B492" s="6" t="s">
         <v>6</v>
@@ -11244,7 +11244,7 @@
     </row>
     <row r="493" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="5">
-        <v>284</v>
+        <v>492</v>
       </c>
       <c r="B493" s="1" t="s">
         <v>8</v>
@@ -11265,7 +11265,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
-        <v>285</v>
+        <v>493</v>
       </c>
       <c r="B494" s="1" t="s">
         <v>9</v>
@@ -11286,7 +11286,7 @@
     </row>
     <row r="495" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="5">
-        <v>286</v>
+        <v>494</v>
       </c>
       <c r="B495" s="6" t="s">
         <v>10</v>
@@ -11308,7 +11308,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
-        <v>287</v>
+        <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
         <v>11</v>
@@ -11330,7 +11330,7 @@
     </row>
     <row r="497" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="5">
-        <v>288</v>
+        <v>496</v>
       </c>
       <c r="B497" s="1" t="s">
         <v>12</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
-        <v>289</v>
+        <v>497</v>
       </c>
       <c r="B498" s="1" t="s">
         <v>6</v>
@@ -11369,7 +11369,7 @@
     </row>
     <row r="499" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="5">
-        <v>290</v>
+        <v>498</v>
       </c>
       <c r="B499" s="1" t="s">
         <v>7</v>
@@ -11390,7 +11390,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
-        <v>291</v>
+        <v>499</v>
       </c>
       <c r="B500" s="6" t="s">
         <v>5</v>
@@ -11412,7 +11412,7 @@
     </row>
     <row r="501" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="5">
-        <v>292</v>
+        <v>500</v>
       </c>
       <c r="B501" s="1" t="s">
         <v>8</v>
@@ -11433,7 +11433,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
-        <v>293</v>
+        <v>501</v>
       </c>
       <c r="B502" s="3" t="s">
         <v>9</v>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="503" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="5">
-        <v>294</v>
+        <v>502</v>
       </c>
       <c r="B503" s="6" t="s">
         <v>12</v>
@@ -11477,7 +11477,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
-        <v>295</v>
+        <v>503</v>
       </c>
       <c r="B504" s="6" t="s">
         <v>6</v>
@@ -11497,7 +11497,7 @@
     </row>
     <row r="505" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="5">
-        <v>296</v>
+        <v>504</v>
       </c>
       <c r="B505" s="1" t="s">
         <v>10</v>
@@ -11518,7 +11518,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
-        <v>297</v>
+        <v>505</v>
       </c>
       <c r="B506" s="1" t="s">
         <v>11</v>
@@ -11539,7 +11539,7 @@
     </row>
     <row r="507" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="5">
-        <v>298</v>
+        <v>506</v>
       </c>
       <c r="B507" s="1" t="s">
         <v>7</v>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
-        <v>299</v>
+        <v>507</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>8</v>
@@ -11582,7 +11582,7 @@
     </row>
     <row r="509" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="5">
-        <v>300</v>
+        <v>508</v>
       </c>
       <c r="B509" s="6" t="s">
         <v>5</v>
@@ -11604,7 +11604,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
-        <v>301</v>
+        <v>509</v>
       </c>
       <c r="B510" s="6" t="s">
         <v>9</v>
@@ -11624,7 +11624,7 @@
     </row>
     <row r="511" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="5">
-        <v>302</v>
+        <v>510</v>
       </c>
       <c r="B511" s="6" t="s">
         <v>12</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
-        <v>303</v>
+        <v>511</v>
       </c>
       <c r="B512" s="6" t="s">
         <v>10</v>
@@ -11666,7 +11666,7 @@
     </row>
     <row r="513" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="5">
-        <v>304</v>
+        <v>512</v>
       </c>
       <c r="B513" s="6" t="s">
         <v>11</v>
@@ -11688,7 +11688,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
-        <v>634</v>
+        <v>513</v>
       </c>
       <c r="B514" s="3" t="s">
         <v>10</v>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="515" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="5">
-        <v>635</v>
+        <v>514</v>
       </c>
       <c r="B515" s="6" t="s">
         <v>11</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
-        <v>636</v>
+        <v>515</v>
       </c>
       <c r="B516" s="3" t="s">
         <v>12</v>
@@ -11754,7 +11754,7 @@
     </row>
     <row r="517" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="5">
-        <v>637</v>
+        <v>516</v>
       </c>
       <c r="B517" s="6" t="s">
         <v>6</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
-        <v>638</v>
+        <v>517</v>
       </c>
       <c r="B518" s="3" t="s">
         <v>9</v>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="519" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="5">
-        <v>639</v>
+        <v>518</v>
       </c>
       <c r="B519" s="6" t="s">
         <v>8</v>
@@ -11816,7 +11816,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
-        <v>640</v>
+        <v>519</v>
       </c>
       <c r="B520" s="3" t="s">
         <v>7</v>
@@ -11838,7 +11838,7 @@
     </row>
     <row r="521" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="5">
-        <v>641</v>
+        <v>520</v>
       </c>
       <c r="B521" s="6" t="s">
         <v>5</v>
@@ -11860,7 +11860,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
-        <v>642</v>
+        <v>521</v>
       </c>
       <c r="B522" s="3" t="s">
         <v>6</v>
@@ -11880,7 +11880,7 @@
     </row>
     <row r="523" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="5">
-        <v>643</v>
+        <v>522</v>
       </c>
       <c r="B523" s="6" t="s">
         <v>9</v>
@@ -11902,7 +11902,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
-        <v>644</v>
+        <v>523</v>
       </c>
       <c r="B524" s="3" t="s">
         <v>12</v>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="525" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="5">
-        <v>645</v>
+        <v>524</v>
       </c>
       <c r="B525" s="6" t="s">
         <v>8</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
-        <v>646</v>
+        <v>525</v>
       </c>
       <c r="B526" s="3" t="s">
         <v>7</v>
@@ -11966,7 +11966,7 @@
     </row>
     <row r="527" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="5">
-        <v>647</v>
+        <v>526</v>
       </c>
       <c r="B527" s="6" t="s">
         <v>5</v>
@@ -11986,7 +11986,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
-        <v>648</v>
+        <v>527</v>
       </c>
       <c r="B528" s="3" t="s">
         <v>10</v>
@@ -12008,7 +12008,7 @@
     </row>
     <row r="529" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="5">
-        <v>649</v>
+        <v>528</v>
       </c>
       <c r="B529" s="6" t="s">
         <v>11</v>
@@ -12030,7 +12030,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B530" s="3" t="s">
         <v>10</v>
@@ -12052,7 +12052,7 @@
     </row>
     <row r="531" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="5">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B531" s="6" t="s">
         <v>11</v>
@@ -12074,7 +12074,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B532" s="3" t="s">
         <v>12</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="533" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="5">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B533" s="6" t="s">
         <v>6</v>
@@ -12116,7 +12116,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B534" s="3" t="s">
         <v>9</v>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="535" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="5">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B535" s="6" t="s">
         <v>8</v>
@@ -12158,7 +12158,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B536" s="3" t="s">
         <v>7</v>
@@ -12180,7 +12180,7 @@
     </row>
     <row r="537" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="5">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="B537" s="6" t="s">
         <v>5</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="B538" s="3" t="s">
         <v>6</v>
@@ -12220,7 +12220,7 @@
     </row>
     <row r="539" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="5">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>9</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="B540" s="3" t="s">
         <v>7</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="541" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="5">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="B541" s="8" t="s">
         <v>5</v>
@@ -12285,7 +12285,7 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B542" s="3" t="s">
         <v>12</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="543" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="5">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="B543" s="6" t="s">
         <v>8</v>
@@ -12329,7 +12329,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="B544" s="3" t="s">
         <v>10</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="545" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="5">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="B545" s="8" t="s">
         <v>11</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
-        <v>305</v>
+        <v>545</v>
       </c>
       <c r="B546" s="3" t="s">
         <v>10</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="547" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="5">
-        <v>306</v>
+        <v>546</v>
       </c>
       <c r="B547" s="6" t="s">
         <v>11</v>
@@ -12417,7 +12417,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
-        <v>307</v>
+        <v>547</v>
       </c>
       <c r="B548" s="6" t="s">
         <v>12</v>
@@ -12437,7 +12437,7 @@
     </row>
     <row r="549" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="5">
-        <v>308</v>
+        <v>548</v>
       </c>
       <c r="B549" s="6" t="s">
         <v>6</v>
@@ -12457,7 +12457,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
-        <v>309</v>
+        <v>549</v>
       </c>
       <c r="B550" s="6" t="s">
         <v>9</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="551" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="5">
-        <v>310</v>
+        <v>550</v>
       </c>
       <c r="B551" s="8" t="s">
         <v>8</v>
@@ -12499,7 +12499,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
-        <v>311</v>
+        <v>551</v>
       </c>
       <c r="B552" s="3" t="s">
         <v>7</v>
@@ -12519,7 +12519,7 @@
     </row>
     <row r="553" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="5">
-        <v>312</v>
+        <v>552</v>
       </c>
       <c r="B553" s="6" t="s">
         <v>5</v>
@@ -12539,7 +12539,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
-        <v>313</v>
+        <v>553</v>
       </c>
       <c r="B554" s="1" t="s">
         <v>12</v>
@@ -12560,7 +12560,7 @@
     </row>
     <row r="555" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="5">
-        <v>314</v>
+        <v>554</v>
       </c>
       <c r="B555" s="6" t="s">
         <v>6</v>
@@ -12580,7 +12580,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
-        <v>315</v>
+        <v>555</v>
       </c>
       <c r="B556" s="1" t="s">
         <v>9</v>
@@ -12601,7 +12601,7 @@
     </row>
     <row r="557" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="5">
-        <v>316</v>
+        <v>556</v>
       </c>
       <c r="B557" s="6" t="s">
         <v>7</v>
@@ -12623,7 +12623,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
-        <v>317</v>
+        <v>557</v>
       </c>
       <c r="B558" s="3" t="s">
         <v>5</v>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="559" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="5">
-        <v>318</v>
+        <v>558</v>
       </c>
       <c r="B559" s="6" t="s">
         <v>8</v>
@@ -12665,7 +12665,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
-        <v>319</v>
+        <v>559</v>
       </c>
       <c r="B560" s="1" t="s">
         <v>6</v>
@@ -12683,7 +12683,7 @@
     </row>
     <row r="561" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="5">
-        <v>320</v>
+        <v>560</v>
       </c>
       <c r="B561" s="6" t="s">
         <v>10</v>
@@ -12705,7 +12705,7 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
-        <v>321</v>
+        <v>561</v>
       </c>
       <c r="B562" s="1" t="s">
         <v>11</v>
@@ -12726,7 +12726,7 @@
     </row>
     <row r="563" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="5">
-        <v>322</v>
+        <v>562</v>
       </c>
       <c r="B563" s="6" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
     </row>
     <row r="564" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2">
-        <v>323</v>
+        <v>563</v>
       </c>
       <c r="B564" s="6" t="s">
         <v>12</v>
@@ -12770,7 +12770,7 @@
     </row>
     <row r="565" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="5">
-        <v>324</v>
+        <v>564</v>
       </c>
       <c r="B565" s="3" t="s">
         <v>7</v>
@@ -12792,7 +12792,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
-        <v>325</v>
+        <v>565</v>
       </c>
       <c r="B566" s="1" t="s">
         <v>5</v>
@@ -12813,7 +12813,7 @@
     </row>
     <row r="567" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="5">
-        <v>326</v>
+        <v>566</v>
       </c>
       <c r="B567" s="6" t="s">
         <v>6</v>
@@ -12833,7 +12833,7 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
-        <v>327</v>
+        <v>567</v>
       </c>
       <c r="B568" s="1" t="s">
         <v>8</v>
@@ -12854,7 +12854,7 @@
     </row>
     <row r="569" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="5">
-        <v>328</v>
+        <v>568</v>
       </c>
       <c r="B569" s="6" t="s">
         <v>10</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
-        <v>329</v>
+        <v>569</v>
       </c>
       <c r="B570" s="1" t="s">
         <v>11</v>
@@ -12897,7 +12897,7 @@
     </row>
     <row r="571" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="5">
-        <v>330</v>
+        <v>570</v>
       </c>
       <c r="B571" s="8" t="s">
         <v>9</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
-        <v>331</v>
+        <v>571</v>
       </c>
       <c r="B572" s="3" t="s">
         <v>12</v>
@@ -12941,7 +12941,7 @@
     </row>
     <row r="573" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="5">
-        <v>332</v>
+        <v>572</v>
       </c>
       <c r="B573" s="6" t="s">
         <v>7</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
-        <v>333</v>
+        <v>573</v>
       </c>
       <c r="B574" s="1" t="s">
         <v>5</v>
@@ -12984,7 +12984,7 @@
     </row>
     <row r="575" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="5">
-        <v>334</v>
+        <v>574</v>
       </c>
       <c r="B575" s="6" t="s">
         <v>6</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
-        <v>335</v>
+        <v>575</v>
       </c>
       <c r="B576" s="1" t="s">
         <v>8</v>
@@ -13025,7 +13025,7 @@
     </row>
     <row r="577" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="5">
-        <v>336</v>
+        <v>576</v>
       </c>
       <c r="B577" s="6" t="s">
         <v>9</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="578" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2">
-        <v>337</v>
+        <v>577</v>
       </c>
       <c r="B578" s="6" t="s">
         <v>10</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="579" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="5">
-        <v>338</v>
+        <v>578</v>
       </c>
       <c r="B579" s="3" t="s">
         <v>11</v>
@@ -13091,7 +13091,7 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
-        <v>339</v>
+        <v>579</v>
       </c>
       <c r="B580" s="6" t="s">
         <v>12</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="581" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="5">
-        <v>340</v>
+        <v>580</v>
       </c>
       <c r="B581" s="6" t="s">
         <v>6</v>
@@ -13133,7 +13133,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
-        <v>341</v>
+        <v>581</v>
       </c>
       <c r="B582" s="1" t="s">
         <v>7</v>
@@ -13154,7 +13154,7 @@
     </row>
     <row r="583" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="5">
-        <v>342</v>
+        <v>582</v>
       </c>
       <c r="B583" s="6" t="s">
         <v>5</v>
@@ -13176,7 +13176,7 @@
     </row>
     <row r="584" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2">
-        <v>343</v>
+        <v>583</v>
       </c>
       <c r="B584" s="6" t="s">
         <v>8</v>
@@ -13198,7 +13198,7 @@
     </row>
     <row r="585" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="5">
-        <v>344</v>
+        <v>584</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>9</v>
@@ -13220,7 +13220,7 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
-        <v>345</v>
+        <v>585</v>
       </c>
       <c r="B586" s="6" t="s">
         <v>12</v>
@@ -13242,7 +13242,7 @@
     </row>
     <row r="587" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="5">
-        <v>346</v>
+        <v>586</v>
       </c>
       <c r="B587" s="6" t="s">
         <v>6</v>
@@ -13262,7 +13262,7 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
-        <v>347</v>
+        <v>587</v>
       </c>
       <c r="B588" s="1" t="s">
         <v>10</v>
@@ -13283,7 +13283,7 @@
     </row>
     <row r="589" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="5">
-        <v>348</v>
+        <v>588</v>
       </c>
       <c r="B589" s="1" t="s">
         <v>11</v>
@@ -13304,7 +13304,7 @@
     </row>
     <row r="590" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2">
-        <v>349</v>
+        <v>589</v>
       </c>
       <c r="B590" s="6" t="s">
         <v>7</v>
@@ -13326,7 +13326,7 @@
     </row>
     <row r="591" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="5">
-        <v>350</v>
+        <v>590</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>8</v>
@@ -13348,7 +13348,7 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
-        <v>351</v>
+        <v>591</v>
       </c>
       <c r="B592" s="1" t="s">
         <v>5</v>
@@ -13369,7 +13369,7 @@
     </row>
     <row r="593" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="5">
-        <v>352</v>
+        <v>592</v>
       </c>
       <c r="B593" s="1" t="s">
         <v>9</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
-        <v>353</v>
+        <v>593</v>
       </c>
       <c r="B594" s="1" t="s">
         <v>12</v>
@@ -13405,7 +13405,7 @@
     </row>
     <row r="595" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="5">
-        <v>354</v>
+        <v>594</v>
       </c>
       <c r="B595" s="6" t="s">
         <v>10</v>
@@ -13427,7 +13427,7 @@
     </row>
     <row r="596" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2">
-        <v>355</v>
+        <v>595</v>
       </c>
       <c r="B596" s="6" t="s">
         <v>11</v>
@@ -13449,7 +13449,7 @@
     </row>
     <row r="597" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="5">
-        <v>650</v>
+        <v>596</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>10</v>
@@ -13471,7 +13471,7 @@
     </row>
     <row r="598" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2">
-        <v>651</v>
+        <v>597</v>
       </c>
       <c r="B598" s="6" t="s">
         <v>11</v>
@@ -13493,7 +13493,7 @@
     </row>
     <row r="599" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="5">
-        <v>652</v>
+        <v>598</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>12</v>
@@ -13515,7 +13515,7 @@
     </row>
     <row r="600" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2">
-        <v>653</v>
+        <v>599</v>
       </c>
       <c r="B600" s="6" t="s">
         <v>6</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="601" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="5">
-        <v>654</v>
+        <v>600</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>9</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="602" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="B602" s="6" t="s">
         <v>8</v>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="603" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="5">
-        <v>656</v>
+        <v>602</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>7</v>
@@ -13599,7 +13599,7 @@
     </row>
     <row r="604" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2">
-        <v>657</v>
+        <v>603</v>
       </c>
       <c r="B604" s="6" t="s">
         <v>5</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="605" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="5">
-        <v>658</v>
+        <v>604</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>6</v>
@@ -13641,7 +13641,7 @@
     </row>
     <row r="606" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2">
-        <v>659</v>
+        <v>605</v>
       </c>
       <c r="B606" s="6" t="s">
         <v>9</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="607" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="5">
-        <v>660</v>
+        <v>606</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>12</v>
@@ -13685,7 +13685,7 @@
     </row>
     <row r="608" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2">
-        <v>661</v>
+        <v>607</v>
       </c>
       <c r="B608" s="1" t="s">
         <v>8</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="609" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="5">
-        <v>662</v>
+        <v>608</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>7</v>
@@ -13726,7 +13726,7 @@
     </row>
     <row r="610" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2">
-        <v>663</v>
+        <v>609</v>
       </c>
       <c r="B610" s="1" t="s">
         <v>5</v>
@@ -13744,7 +13744,7 @@
     </row>
     <row r="611" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="5">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>10</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="612" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2">
-        <v>665</v>
+        <v>611</v>
       </c>
       <c r="B612" s="6" t="s">
         <v>11</v>
@@ -13788,7 +13788,7 @@
     </row>
     <row r="613" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="5">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>10</v>
@@ -13810,7 +13810,7 @@
     </row>
     <row r="614" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2">
-        <v>555</v>
+        <v>613</v>
       </c>
       <c r="B614" s="6" t="s">
         <v>11</v>
@@ -13832,7 +13832,7 @@
     </row>
     <row r="615" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="5">
-        <v>556</v>
+        <v>614</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>12</v>
@@ -13854,7 +13854,7 @@
     </row>
     <row r="616" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2">
-        <v>557</v>
+        <v>615</v>
       </c>
       <c r="B616" s="6" t="s">
         <v>6</v>
@@ -13874,7 +13874,7 @@
     </row>
     <row r="617" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="5">
-        <v>558</v>
+        <v>616</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>9</v>
@@ -13894,7 +13894,7 @@
     </row>
     <row r="618" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2">
-        <v>559</v>
+        <v>617</v>
       </c>
       <c r="B618" s="6" t="s">
         <v>8</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="619" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="5">
-        <v>560</v>
+        <v>618</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>7</v>
@@ -13938,7 +13938,7 @@
     </row>
     <row r="620" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2">
-        <v>561</v>
+        <v>619</v>
       </c>
       <c r="B620" s="6" t="s">
         <v>5</v>
@@ -13958,7 +13958,7 @@
     </row>
     <row r="621" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="5">
-        <v>562</v>
+        <v>620</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>6</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="622" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2">
-        <v>563</v>
+        <v>621</v>
       </c>
       <c r="B622" s="6" t="s">
         <v>9</v>
@@ -14000,7 +14000,7 @@
     </row>
     <row r="623" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="5">
-        <v>564</v>
+        <v>622</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>7</v>
@@ -14022,7 +14022,7 @@
     </row>
     <row r="624" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2">
-        <v>565</v>
+        <v>623</v>
       </c>
       <c r="B624" s="8" t="s">
         <v>5</v>
@@ -14044,7 +14044,7 @@
     </row>
     <row r="625" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="5">
-        <v>566</v>
+        <v>624</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>12</v>
@@ -14066,7 +14066,7 @@
     </row>
     <row r="626" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2">
-        <v>567</v>
+        <v>625</v>
       </c>
       <c r="B626" s="6" t="s">
         <v>8</v>
@@ -14088,7 +14088,7 @@
     </row>
     <row r="627" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="5">
-        <v>568</v>
+        <v>626</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>10</v>
@@ -14110,7 +14110,7 @@
     </row>
     <row r="628" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="B628" s="8" t="s">
         <v>11</v>
@@ -14132,7 +14132,7 @@
     </row>
     <row r="629" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="5">
-        <v>356</v>
+        <v>628</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>10</v>
@@ -14154,7 +14154,7 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
-        <v>357</v>
+        <v>629</v>
       </c>
       <c r="B630" s="6" t="s">
         <v>11</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="631" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="5">
-        <v>358</v>
+        <v>630</v>
       </c>
       <c r="B631" s="6" t="s">
         <v>12</v>
@@ -14196,7 +14196,7 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
-        <v>359</v>
+        <v>631</v>
       </c>
       <c r="B632" s="6" t="s">
         <v>6</v>
@@ -14216,7 +14216,7 @@
     </row>
     <row r="633" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="5">
-        <v>360</v>
+        <v>632</v>
       </c>
       <c r="B633" s="6" t="s">
         <v>9</v>
@@ -14236,7 +14236,7 @@
     </row>
     <row r="634" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2">
-        <v>361</v>
+        <v>633</v>
       </c>
       <c r="B634" s="8" t="s">
         <v>8</v>
@@ -14258,7 +14258,7 @@
     </row>
     <row r="635" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="5">
-        <v>362</v>
+        <v>634</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>7</v>
@@ -14278,7 +14278,7 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
-        <v>363</v>
+        <v>635</v>
       </c>
       <c r="B636" s="6" t="s">
         <v>5</v>
@@ -14298,7 +14298,7 @@
     </row>
     <row r="637" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="5">
-        <v>364</v>
+        <v>636</v>
       </c>
       <c r="B637" s="1" t="s">
         <v>12</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
-        <v>365</v>
+        <v>637</v>
       </c>
       <c r="B638" s="6" t="s">
         <v>6</v>
@@ -14339,7 +14339,7 @@
     </row>
     <row r="639" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="5">
-        <v>366</v>
+        <v>638</v>
       </c>
       <c r="B639" s="1" t="s">
         <v>9</v>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="640" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2">
-        <v>367</v>
+        <v>639</v>
       </c>
       <c r="B640" s="1" t="s">
         <v>7</v>
@@ -14381,7 +14381,7 @@
     </row>
     <row r="641" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="5">
-        <v>368</v>
+        <v>640</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>5</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
-        <v>369</v>
+        <v>641</v>
       </c>
       <c r="B642" s="6" t="s">
         <v>8</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="643" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="5">
-        <v>370</v>
+        <v>642</v>
       </c>
       <c r="B643" s="6" t="s">
         <v>6</v>
@@ -14443,7 +14443,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
-        <v>371</v>
+        <v>643</v>
       </c>
       <c r="B644" s="6" t="s">
         <v>10</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="645" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="5">
-        <v>372</v>
+        <v>644</v>
       </c>
       <c r="B645" s="1" t="s">
         <v>11</v>
@@ -14486,7 +14486,7 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
-        <v>373</v>
+        <v>645</v>
       </c>
       <c r="B646" s="6" t="s">
         <v>9</v>
@@ -14508,7 +14508,7 @@
     </row>
     <row r="647" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="5">
-        <v>374</v>
+        <v>646</v>
       </c>
       <c r="B647" s="6" t="s">
         <v>12</v>
@@ -14530,7 +14530,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
-        <v>375</v>
+        <v>647</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>7</v>
@@ -14552,7 +14552,7 @@
     </row>
     <row r="649" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="5">
-        <v>376</v>
+        <v>648</v>
       </c>
       <c r="B649" s="1" t="s">
         <v>5</v>
@@ -14573,7 +14573,7 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="2">
-        <v>377</v>
+        <v>649</v>
       </c>
       <c r="B650" s="6" t="s">
         <v>6</v>
@@ -14593,7 +14593,7 @@
     </row>
     <row r="651" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A651" s="5">
-        <v>378</v>
+        <v>650</v>
       </c>
       <c r="B651" s="1" t="s">
         <v>8</v>
@@ -14614,7 +14614,7 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
-        <v>379</v>
+        <v>651</v>
       </c>
       <c r="B652" s="6" t="s">
         <v>10</v>
@@ -14636,7 +14636,7 @@
     </row>
     <row r="653" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A653" s="5">
-        <v>380</v>
+        <v>652</v>
       </c>
       <c r="B653" s="1" t="s">
         <v>11</v>
@@ -14657,7 +14657,7 @@
     </row>
     <row r="654" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2">
-        <v>381</v>
+        <v>653</v>
       </c>
       <c r="B654" s="8" t="s">
         <v>9</v>
@@ -14679,7 +14679,7 @@
     </row>
     <row r="655" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="5">
-        <v>382</v>
+        <v>654</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>12</v>
@@ -14701,7 +14701,7 @@
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
-        <v>383</v>
+        <v>655</v>
       </c>
       <c r="B656" s="6" t="s">
         <v>7</v>
@@ -14723,7 +14723,7 @@
     </row>
     <row r="657" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A657" s="5">
-        <v>384</v>
+        <v>656</v>
       </c>
       <c r="B657" s="1" t="s">
         <v>5</v>
@@ -14744,7 +14744,7 @@
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
-        <v>385</v>
+        <v>657</v>
       </c>
       <c r="B658" s="6" t="s">
         <v>6</v>
@@ -14764,7 +14764,7 @@
     </row>
     <row r="659" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A659" s="5">
-        <v>386</v>
+        <v>658</v>
       </c>
       <c r="B659" s="1" t="s">
         <v>8</v>
@@ -14785,7 +14785,7 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
-        <v>387</v>
+        <v>659</v>
       </c>
       <c r="B660" s="1" t="s">
         <v>9</v>
@@ -14806,7 +14806,7 @@
     </row>
     <row r="661" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A661" s="5">
-        <v>388</v>
+        <v>660</v>
       </c>
       <c r="B661" s="6" t="s">
         <v>10</v>
@@ -14828,7 +14828,7 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
-        <v>389</v>
+        <v>661</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>11</v>
@@ -14850,7 +14850,7 @@
     </row>
     <row r="663" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A663" s="5">
-        <v>390</v>
+        <v>662</v>
       </c>
       <c r="B663" s="1" t="s">
         <v>12</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
-        <v>391</v>
+        <v>663</v>
       </c>
       <c r="B664" s="1" t="s">
         <v>6</v>
@@ -14889,7 +14889,7 @@
     </row>
     <row r="665" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A665" s="5">
-        <v>392</v>
+        <v>664</v>
       </c>
       <c r="B665" s="1" t="s">
         <v>7</v>
@@ -14910,7 +14910,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="2">
-        <v>393</v>
+        <v>665</v>
       </c>
       <c r="B666" s="6" t="s">
         <v>5</v>
@@ -14932,7 +14932,7 @@
     </row>
     <row r="667" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A667" s="5">
-        <v>394</v>
+        <v>666</v>
       </c>
       <c r="B667" s="1" t="s">
         <v>8</v>
@@ -14953,7 +14953,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
-        <v>395</v>
+        <v>667</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>9</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="669" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A669" s="5">
-        <v>396</v>
+        <v>668</v>
       </c>
       <c r="B669" s="6" t="s">
         <v>12</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
-        <v>397</v>
+        <v>669</v>
       </c>
       <c r="B670" s="6" t="s">
         <v>6</v>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="671" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A671" s="5">
-        <v>398</v>
+        <v>670</v>
       </c>
       <c r="B671" s="1" t="s">
         <v>10</v>
@@ -15038,7 +15038,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
-        <v>399</v>
+        <v>671</v>
       </c>
       <c r="B672" s="6" t="s">
         <v>11</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="673" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A673" s="5">
-        <v>400</v>
+        <v>672</v>
       </c>
       <c r="B673" s="1" t="s">
         <v>7</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
-        <v>401</v>
+        <v>673</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>8</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="675" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="5">
-        <v>402</v>
+        <v>674</v>
       </c>
       <c r="B675" s="1" t="s">
         <v>5</v>
@@ -15124,7 +15124,7 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
-        <v>403</v>
+        <v>675</v>
       </c>
       <c r="B676" s="6" t="s">
         <v>9</v>
@@ -15144,7 +15144,7 @@
     </row>
     <row r="677" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A677" s="5">
-        <v>404</v>
+        <v>676</v>
       </c>
       <c r="B677" s="6" t="s">
         <v>12</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
-        <v>405</v>
+        <v>677</v>
       </c>
       <c r="B678" s="6" t="s">
         <v>10</v>
@@ -15186,7 +15186,7 @@
     </row>
     <row r="679" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A679" s="5">
-        <v>406</v>
+        <v>678</v>
       </c>
       <c r="B679" s="6" t="s">
         <v>11</v>
@@ -15208,7 +15208,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
-        <v>666</v>
+        <v>679</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>10</v>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="681" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A681" s="5">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="B681" s="6" t="s">
         <v>11</v>
@@ -15252,7 +15252,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>12</v>
@@ -15274,7 +15274,7 @@
     </row>
     <row r="683" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A683" s="5">
-        <v>669</v>
+        <v>682</v>
       </c>
       <c r="B683" s="6" t="s">
         <v>6</v>
@@ -15294,7 +15294,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="B684" s="3" t="s">
         <v>9</v>
@@ -15314,7 +15314,7 @@
     </row>
     <row r="685" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A685" s="5">
-        <v>671</v>
+        <v>684</v>
       </c>
       <c r="B685" s="6" t="s">
         <v>8</v>
@@ -15336,7 +15336,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="B686" s="3" t="s">
         <v>7</v>
@@ -15358,7 +15358,7 @@
     </row>
     <row r="687" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A687" s="5">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="B687" s="6" t="s">
         <v>5</v>
@@ -15380,7 +15380,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="B688" s="3" t="s">
         <v>6</v>
@@ -15400,7 +15400,7 @@
     </row>
     <row r="689" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A689" s="5">
-        <v>675</v>
+        <v>688</v>
       </c>
       <c r="B689" s="1" t="s">
         <v>9</v>
@@ -15421,7 +15421,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="2">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B690" s="3" t="s">
         <v>12</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="691" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A691" s="5">
-        <v>677</v>
+        <v>690</v>
       </c>
       <c r="B691" s="1" t="s">
         <v>8</v>
@@ -15464,7 +15464,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
-        <v>678</v>
+        <v>691</v>
       </c>
       <c r="B692" s="3" t="s">
         <v>7</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="693" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A693" s="5">
-        <v>679</v>
+        <v>692</v>
       </c>
       <c r="B693" s="1" t="s">
         <v>5</v>
@@ -15502,7 +15502,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
-        <v>680</v>
+        <v>693</v>
       </c>
       <c r="B694" s="3" t="s">
         <v>10</v>
@@ -15524,7 +15524,7 @@
     </row>
     <row r="695" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="5">
-        <v>681</v>
+        <v>694</v>
       </c>
       <c r="B695" s="6" t="s">
         <v>11</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
-        <v>407</v>
+        <v>695</v>
       </c>
       <c r="B696" s="3" t="s">
         <v>10</v>
@@ -15568,7 +15568,7 @@
     </row>
     <row r="697" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A697" s="5">
-        <v>408</v>
+        <v>696</v>
       </c>
       <c r="B697" s="6" t="s">
         <v>11</v>
@@ -15590,7 +15590,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
-        <v>409</v>
+        <v>697</v>
       </c>
       <c r="B698" s="6" t="s">
         <v>12</v>
@@ -15610,7 +15610,7 @@
     </row>
     <row r="699" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A699" s="5">
-        <v>410</v>
+        <v>698</v>
       </c>
       <c r="B699" s="6" t="s">
         <v>6</v>
@@ -15630,7 +15630,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
-        <v>411</v>
+        <v>699</v>
       </c>
       <c r="B700" s="6" t="s">
         <v>9</v>
@@ -15650,7 +15650,7 @@
     </row>
     <row r="701" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A701" s="5">
-        <v>412</v>
+        <v>700</v>
       </c>
       <c r="B701" s="8" t="s">
         <v>8</v>
@@ -15672,7 +15672,7 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
-        <v>413</v>
+        <v>701</v>
       </c>
       <c r="B702" s="3" t="s">
         <v>7</v>
@@ -15692,7 +15692,7 @@
     </row>
     <row r="703" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="5">
-        <v>414</v>
+        <v>702</v>
       </c>
       <c r="B703" s="6" t="s">
         <v>5</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
-        <v>415</v>
+        <v>703</v>
       </c>
       <c r="B704" s="6" t="s">
         <v>12</v>
@@ -15734,7 +15734,7 @@
     </row>
     <row r="705" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A705" s="5">
-        <v>416</v>
+        <v>704</v>
       </c>
       <c r="B705" s="6" t="s">
         <v>6</v>
@@ -15754,7 +15754,7 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
-        <v>417</v>
+        <v>705</v>
       </c>
       <c r="B706" s="6" t="s">
         <v>9</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="707" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A707" s="5">
-        <v>418</v>
+        <v>706</v>
       </c>
       <c r="B707" s="1" t="s">
         <v>7</v>
@@ -15797,7 +15797,7 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
-        <v>419</v>
+        <v>707</v>
       </c>
       <c r="B708" s="3" t="s">
         <v>5</v>
@@ -15817,7 +15817,7 @@
     </row>
     <row r="709" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A709" s="5">
-        <v>420</v>
+        <v>708</v>
       </c>
       <c r="B709" s="6" t="s">
         <v>8</v>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
-        <v>421</v>
+        <v>709</v>
       </c>
       <c r="B710" s="6" t="s">
         <v>6</v>
@@ -15859,7 +15859,7 @@
     </row>
     <row r="711" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5">
-        <v>422</v>
+        <v>710</v>
       </c>
       <c r="B711" s="1" t="s">
         <v>10</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="2">
-        <v>423</v>
+        <v>711</v>
       </c>
       <c r="B712" s="6" t="s">
         <v>11</v>
@@ -15902,7 +15902,7 @@
     </row>
     <row r="713" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A713" s="5">
-        <v>424</v>
+        <v>712</v>
       </c>
       <c r="B713" s="6" t="s">
         <v>9</v>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="714" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2">
-        <v>425</v>
+        <v>713</v>
       </c>
       <c r="B714" s="6" t="s">
         <v>12</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="715" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A715" s="5">
-        <v>426</v>
+        <v>714</v>
       </c>
       <c r="B715" s="3" t="s">
         <v>7</v>
@@ -15968,7 +15968,7 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
-        <v>427</v>
+        <v>715</v>
       </c>
       <c r="B716" s="6" t="s">
         <v>5</v>
@@ -15990,7 +15990,7 @@
     </row>
     <row r="717" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A717" s="5">
-        <v>428</v>
+        <v>716</v>
       </c>
       <c r="B717" s="6" t="s">
         <v>6</v>
@@ -16010,7 +16010,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
-        <v>429</v>
+        <v>717</v>
       </c>
       <c r="B718" s="6" t="s">
         <v>8</v>
@@ -16032,7 +16032,7 @@
     </row>
     <row r="719" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A719" s="5">
-        <v>430</v>
+        <v>718</v>
       </c>
       <c r="B719" s="6" t="s">
         <v>10</v>
@@ -16054,7 +16054,7 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
-        <v>431</v>
+        <v>719</v>
       </c>
       <c r="B720" s="6" t="s">
         <v>11</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="721" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A721" s="5">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="B721" s="8" t="s">
         <v>9</v>
@@ -16098,7 +16098,7 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
-        <v>433</v>
+        <v>721</v>
       </c>
       <c r="B722" s="3" t="s">
         <v>12</v>
@@ -16120,7 +16120,7 @@
     </row>
     <row r="723" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A723" s="5">
-        <v>434</v>
+        <v>722</v>
       </c>
       <c r="B723" s="6" t="s">
         <v>7</v>
@@ -16142,7 +16142,7 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
-        <v>435</v>
+        <v>723</v>
       </c>
       <c r="B724" s="6" t="s">
         <v>5</v>
@@ -16164,7 +16164,7 @@
     </row>
     <row r="725" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A725" s="5">
-        <v>436</v>
+        <v>724</v>
       </c>
       <c r="B725" s="1" t="s">
         <v>6</v>
@@ -16182,7 +16182,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
-        <v>437</v>
+        <v>725</v>
       </c>
       <c r="B726" s="6" t="s">
         <v>8</v>
@@ -16204,7 +16204,7 @@
     </row>
     <row r="727" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A727" s="5">
-        <v>438</v>
+        <v>726</v>
       </c>
       <c r="B727" s="6" t="s">
         <v>9</v>
@@ -16226,7 +16226,7 @@
     </row>
     <row r="728" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2">
-        <v>439</v>
+        <v>727</v>
       </c>
       <c r="B728" s="6" t="s">
         <v>10</v>
@@ -16248,7 +16248,7 @@
     </row>
     <row r="729" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A729" s="5">
-        <v>440</v>
+        <v>728</v>
       </c>
       <c r="B729" s="3" t="s">
         <v>11</v>
@@ -16270,7 +16270,7 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
-        <v>441</v>
+        <v>729</v>
       </c>
       <c r="B730" s="6" t="s">
         <v>12</v>
@@ -16292,7 +16292,7 @@
     </row>
     <row r="731" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A731" s="5">
-        <v>442</v>
+        <v>730</v>
       </c>
       <c r="B731" s="6" t="s">
         <v>6</v>
@@ -16312,7 +16312,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
-        <v>443</v>
+        <v>731</v>
       </c>
       <c r="B732" s="6" t="s">
         <v>7</v>
@@ -16334,7 +16334,7 @@
     </row>
     <row r="733" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A733" s="5">
-        <v>444</v>
+        <v>732</v>
       </c>
       <c r="B733" s="1" t="s">
         <v>5</v>
@@ -16355,7 +16355,7 @@
     </row>
     <row r="734" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2">
-        <v>445</v>
+        <v>733</v>
       </c>
       <c r="B734" s="1" t="s">
         <v>8</v>
@@ -16376,7 +16376,7 @@
     </row>
     <row r="735" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A735" s="5">
-        <v>446</v>
+        <v>734</v>
       </c>
       <c r="B735" s="3" t="s">
         <v>9</v>
@@ -16398,7 +16398,7 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
-        <v>447</v>
+        <v>735</v>
       </c>
       <c r="B736" s="1" t="s">
         <v>12</v>
@@ -16419,7 +16419,7 @@
     </row>
     <row r="737" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A737" s="5">
-        <v>448</v>
+        <v>736</v>
       </c>
       <c r="B737" s="6" t="s">
         <v>6</v>
@@ -16439,7 +16439,7 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
-        <v>449</v>
+        <v>737</v>
       </c>
       <c r="B738" s="6" t="s">
         <v>10</v>
@@ -16461,7 +16461,7 @@
     </row>
     <row r="739" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A739" s="5">
-        <v>450</v>
+        <v>738</v>
       </c>
       <c r="B739" s="6" t="s">
         <v>11</v>
@@ -16483,7 +16483,7 @@
     </row>
     <row r="740" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2">
-        <v>451</v>
+        <v>739</v>
       </c>
       <c r="B740" s="1" t="s">
         <v>7</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="741" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A741" s="5">
-        <v>452</v>
+        <v>740</v>
       </c>
       <c r="B741" s="3" t="s">
         <v>8</v>
@@ -16526,7 +16526,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
-        <v>453</v>
+        <v>741</v>
       </c>
       <c r="B742" s="1" t="s">
         <v>5</v>
@@ -16547,7 +16547,7 @@
     </row>
     <row r="743" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A743" s="5">
-        <v>454</v>
+        <v>742</v>
       </c>
       <c r="B743" s="6" t="s">
         <v>9</v>
@@ -16567,7 +16567,7 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
-        <v>455</v>
+        <v>743</v>
       </c>
       <c r="B744" s="6" t="s">
         <v>12</v>
@@ -16587,7 +16587,7 @@
     </row>
     <row r="745" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A745" s="5">
-        <v>456</v>
+        <v>744</v>
       </c>
       <c r="B745" s="6" t="s">
         <v>10</v>
@@ -16609,7 +16609,7 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
-        <v>457</v>
+        <v>745</v>
       </c>
       <c r="B746" s="1" t="s">
         <v>11</v>
